--- a/raw_data/PAR.xlsx
+++ b/raw_data/PAR.xlsx
@@ -1,33 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leandro.a.rodrigues\Desktop\greentribe\weather\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF37E54E-6E7F-4F79-A62A-3958AAD53B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="22">
   <si>
-    <t>﻿Date</t>
+    <t xml:space="preserve">﻿Date</t>
   </si>
   <si>
     <t>Timestamp</t>
@@ -36,74 +25,81 @@
     <t>μmoles</t>
   </si>
   <si>
-    <t>﻿2024-09-02</t>
+    <t xml:space="preserve">﻿2024-09-02</t>
   </si>
   <si>
-    <t>﻿2024-09-03</t>
+    <t xml:space="preserve">﻿2024-09-03</t>
   </si>
   <si>
-    <t>﻿2024-09-04</t>
+    <t xml:space="preserve">﻿2024-09-04</t>
   </si>
   <si>
-    <t>﻿2024-09-05</t>
+    <t xml:space="preserve">﻿2024-09-05</t>
   </si>
   <si>
-    <t>﻿2024-09-06</t>
+    <t xml:space="preserve">﻿2024-09-06</t>
   </si>
   <si>
-    <t>﻿2024-09-07</t>
+    <t xml:space="preserve">﻿2024-09-07</t>
   </si>
   <si>
-    <t>﻿2024-09-08</t>
+    <t xml:space="preserve">﻿2024-09-08</t>
   </si>
   <si>
-    <t>﻿2024-09-09</t>
+    <t xml:space="preserve">﻿2024-09-09</t>
   </si>
   <si>
-    <t>﻿2024-09-10</t>
+    <t xml:space="preserve">﻿2024-09-10</t>
   </si>
   <si>
-    <t>﻿2024-09-11</t>
+    <t xml:space="preserve">﻿2024-09-11</t>
   </si>
   <si>
-    <t>﻿2024-09-12</t>
+    <t xml:space="preserve">﻿2024-09-12</t>
   </si>
   <si>
-    <t>﻿2024-09-13</t>
+    <t xml:space="preserve">﻿2024-09-13</t>
   </si>
   <si>
-    <t>﻿2024-09-14</t>
+    <t xml:space="preserve">﻿2024-09-14</t>
   </si>
   <si>
-    <t>﻿2024-09-15</t>
+    <t xml:space="preserve">﻿2024-09-15</t>
   </si>
   <si>
-    <t>﻿2024-09-16</t>
+    <t xml:space="preserve">﻿2024-09-16</t>
   </si>
   <si>
-    <t>﻿2024-09-17</t>
+    <t xml:space="preserve">﻿2024-09-17</t>
   </si>
   <si>
-    <t>﻿2024-09-18</t>
+    <t xml:space="preserve">﻿2024-09-18</t>
   </si>
   <si>
-    <t>﻿2024-09-19</t>
+    <t xml:space="preserve">﻿2024-09-19</t>
   </si>
   <si>
-    <t>﻿2024-09-20</t>
+    <t xml:space="preserve">﻿2024-09-20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,7 +110,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -126,26 +129,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellXfs count="8">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" numFmtId="21" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="21" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -156,10 +171,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -186,82 +201,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -273,4799 +288,4822 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:C422"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="7.576428571428571" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>0.80409722222222224</v>
-      </c>
-      <c r="C2" s="1">
-        <v>81.900000000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.8046180555555555</v>
+      </c>
+      <c r="C2" s="3">
+        <v>81.9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>0.84576388888888887</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.8462847222222223</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>0.8874305555555555</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.8879513888888888</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>0.92909722222222224</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9296180555555555</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>0.97076388888888887</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9712847222222223</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>1.2430555555555556E-2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0129513888888888</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>5.409722222222222E-2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0546180555555555</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>9.5763888888888885E-2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0962847222222223</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>0.13743055555555556</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1379513888888888</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>0.17909722222222221</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1796180555555555</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>0.2207638888888889</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2212847222222223</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>0.26243055555555556</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2629513888888888</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>0.30409722222222224</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.3046180555555555</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>0.34576388888888887</v>
-      </c>
-      <c r="C15" s="1">
+        <v>1.3462847222222223</v>
+      </c>
+      <c r="C15" s="3">
         <v>15.4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>0.38743055555555556</v>
-      </c>
-      <c r="C16" s="1">
+        <v>1.3879513888888888</v>
+      </c>
+      <c r="C16" s="3">
         <v>30.7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>0.42909722222222224</v>
-      </c>
-      <c r="C17" s="1">
+        <v>1.4296180555555555</v>
+      </c>
+      <c r="C17" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>0.47076388888888887</v>
-      </c>
-      <c r="C18" s="1">
-        <v>149.69999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.4712847222222223</v>
+      </c>
+      <c r="C18" s="3">
+        <v>149.7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>0.5124305555555555</v>
-      </c>
-      <c r="C19" s="1">
+        <v>1.5129513888888888</v>
+      </c>
+      <c r="C19" s="3">
         <v>358.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>0.55409722222222224</v>
-      </c>
-      <c r="C20" s="1">
+        <v>1.5546180555555555</v>
+      </c>
+      <c r="C20" s="3">
         <v>353.6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>0.59576388888888887</v>
-      </c>
-      <c r="C21" s="1">
+        <v>1.5962847222222223</v>
+      </c>
+      <c r="C21" s="4">
         <v>225</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>0.6374305555555555</v>
-      </c>
-      <c r="C22" s="1">
-        <v>159.30000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.6379513888888888</v>
+      </c>
+      <c r="C22" s="3">
+        <v>159.3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>0.67909722222222224</v>
-      </c>
-      <c r="C23" s="1">
+        <v>1.6796180555555555</v>
+      </c>
+      <c r="C23" s="3">
         <v>107.2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>0.72076388888888887</v>
-      </c>
-      <c r="C24" s="1">
+        <v>1.7212847222222223</v>
+      </c>
+      <c r="C24" s="3">
         <v>181.8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>0.77711805555555558</v>
-      </c>
-      <c r="C25" s="1">
+        <v>1.7776388888888888</v>
+      </c>
+      <c r="C25" s="3">
         <v>138.9</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>0.81878472222222221</v>
-      </c>
-      <c r="C26" s="1">
+        <v>1.8193055555555555</v>
+      </c>
+      <c r="C26" s="3">
         <v>4.8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>0.86045138888888884</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.8609722222222222</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>0.90211805555555558</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9026388888888888</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>0.94378472222222221</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9443055555555555</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>0.98545138888888884</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9859722222222222</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="2">
-        <v>2.7118055555555555E-2</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.027638888888889</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="2">
-        <v>6.8784722222222219E-2</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0693055555555555</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="2">
-        <v>0.11045138888888889</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1109722222222222</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="2">
-        <v>0.15211805555555555</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1526388888888888</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="2">
-        <v>0.19378472222222223</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1943055555555555</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="2">
-        <v>0.23545138888888889</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2359722222222222</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="2">
-        <v>0.27711805555555558</v>
-      </c>
-      <c r="C37" s="1">
+        <v>1.2776388888888888</v>
+      </c>
+      <c r="C37" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="2">
-        <v>0.31878472222222221</v>
-      </c>
-      <c r="C38" s="1">
+        <v>1.3193055555555555</v>
+      </c>
+      <c r="C38" s="3">
         <v>15.2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="2">
-        <v>0.36045138888888889</v>
-      </c>
-      <c r="C39" s="1">
+        <v>1.3609722222222222</v>
+      </c>
+      <c r="C39" s="3">
         <v>25.3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="2">
-        <v>0.40211805555555558</v>
-      </c>
-      <c r="C40" s="1">
-        <v>32.700000000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.4026388888888888</v>
+      </c>
+      <c r="C40" s="3">
+        <v>32.7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="2">
-        <v>0.44378472222222221</v>
-      </c>
-      <c r="C41" s="1">
+        <v>1.4443055555555555</v>
+      </c>
+      <c r="C41" s="3">
         <v>136.6</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="2">
-        <v>0.48545138888888889</v>
-      </c>
-      <c r="C42" s="1">
+        <v>1.4859722222222222</v>
+      </c>
+      <c r="C42" s="3">
         <v>358.4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="2">
-        <v>0.52711805555555558</v>
-      </c>
-      <c r="C43" s="1">
+        <v>1.5276388888888888</v>
+      </c>
+      <c r="C43" s="4">
         <v>360</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="2">
-        <v>0.56878472222222221</v>
-      </c>
-      <c r="C44" s="1">
+        <v>1.5693055555555555</v>
+      </c>
+      <c r="C44" s="3">
         <v>213.7</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="2">
-        <v>0.61045138888888884</v>
-      </c>
-      <c r="C45" s="1">
-        <v>151.80000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.6109722222222222</v>
+      </c>
+      <c r="C45" s="3">
+        <v>151.8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="2">
-        <v>0.65211805555555558</v>
-      </c>
-      <c r="C46" s="1">
-        <v>75.400000000000006</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.6526388888888888</v>
+      </c>
+      <c r="C46" s="3">
+        <v>75.4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="2">
-        <v>0.69378472222222221</v>
-      </c>
-      <c r="C47" s="1">
+        <v>1.6943055555555555</v>
+      </c>
+      <c r="C47" s="3">
         <v>169.4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="2">
-        <v>0.73545138888888884</v>
-      </c>
-      <c r="C48" s="1">
-        <v>291.39999999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7359722222222222</v>
+      </c>
+      <c r="C48" s="3">
+        <v>291.4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B49" s="2">
-        <v>0.77711805555555558</v>
-      </c>
-      <c r="C49" s="1">
+        <v>1.7776388888888888</v>
+      </c>
+      <c r="C49" s="3">
         <v>92.7</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="2">
-        <v>0.81878472222222221</v>
-      </c>
-      <c r="C50" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.8193055555555555</v>
+      </c>
+      <c r="C50" s="3">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B51" s="2">
-        <v>0.86045138888888884</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.8609722222222222</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="2">
-        <v>0.90211805555555558</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9026388888888888</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B53" s="2">
-        <v>0.94378472222222221</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9443055555555555</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B54" s="2">
-        <v>0.98545138888888884</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9859722222222222</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
       <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B55" s="2">
-        <v>2.7118055555555555E-2</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.027638888888889</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
       <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B56" s="2">
-        <v>6.8784722222222219E-2</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0693055555555555</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
       <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B57" s="2">
-        <v>0.11045138888888889</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1109722222222222</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="2">
-        <v>0.15211805555555555</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1526388888888888</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B59" s="2">
-        <v>0.19378472222222223</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1943055555555555</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B60" s="2">
-        <v>0.23545138888888889</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2359722222222222</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B61" s="2">
-        <v>0.27711805555555558</v>
-      </c>
-      <c r="C61" s="1">
+        <v>1.2776388888888888</v>
+      </c>
+      <c r="C61" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B62" s="2">
-        <v>0.31878472222222221</v>
-      </c>
-      <c r="C62" s="1">
+        <v>1.3193055555555555</v>
+      </c>
+      <c r="C62" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B63" s="2">
-        <v>0.36045138888888889</v>
-      </c>
-      <c r="C63" s="1">
+        <v>1.3609722222222222</v>
+      </c>
+      <c r="C63" s="3">
         <v>25.8</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B64" s="2">
-        <v>0.40211805555555558</v>
-      </c>
-      <c r="C64" s="1">
+        <v>1.4026388888888888</v>
+      </c>
+      <c r="C64" s="3">
         <v>50.4</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B65" s="2">
-        <v>0.44378472222222221</v>
-      </c>
-      <c r="C65" s="1">
-        <v>131.30000000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.4443055555555555</v>
+      </c>
+      <c r="C65" s="3">
+        <v>131.3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B66" s="2">
-        <v>0.48545138888888889</v>
-      </c>
-      <c r="C66" s="1">
+        <v>1.4859722222222222</v>
+      </c>
+      <c r="C66" s="3">
         <v>258.2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B67" s="2">
-        <v>0.52711805555555558</v>
-      </c>
-      <c r="C67" s="1">
+        <v>1.5276388888888888</v>
+      </c>
+      <c r="C67" s="3">
         <v>175.6</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B68" s="2">
-        <v>0.56878472222222221</v>
-      </c>
-      <c r="C68" s="1">
+        <v>1.5693055555555555</v>
+      </c>
+      <c r="C68" s="3">
         <v>135.6</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="2">
-        <v>0.61045138888888884</v>
-      </c>
-      <c r="C69" s="1">
+        <v>1.6109722222222222</v>
+      </c>
+      <c r="C69" s="4">
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B70" s="2">
-        <v>0.65211805555555558</v>
-      </c>
-      <c r="C70" s="1">
+        <v>1.6526388888888888</v>
+      </c>
+      <c r="C70" s="3">
         <v>91.3</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B71" s="2">
-        <v>0.69378472222222221</v>
-      </c>
-      <c r="C71" s="1">
+        <v>1.6943055555555555</v>
+      </c>
+      <c r="C71" s="3">
         <v>163.5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B72" s="2">
-        <v>0.73545138888888884</v>
-      </c>
-      <c r="C72" s="1">
+        <v>1.7359722222222222</v>
+      </c>
+      <c r="C72" s="3">
         <v>379.5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
       <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B73" s="2">
-        <v>0.77711805555555558</v>
-      </c>
-      <c r="C73" s="1">
+        <v>1.7776388888888888</v>
+      </c>
+      <c r="C73" s="3">
         <v>120.4</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
       <c r="A74" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B74" s="2">
-        <v>0.81878472222222221</v>
-      </c>
-      <c r="C74" s="1">
+        <v>1.8193055555555555</v>
+      </c>
+      <c r="C74" s="3">
         <v>3.5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B75" s="2">
-        <v>0.86045138888888884</v>
-      </c>
-      <c r="C75" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.8609722222222222</v>
+      </c>
+      <c r="C75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B76" s="2">
-        <v>0.90211805555555558</v>
-      </c>
-      <c r="C76" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9026388888888888</v>
+      </c>
+      <c r="C76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
       <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B77" s="2">
-        <v>0.94378472222222221</v>
-      </c>
-      <c r="C77" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9443055555555555</v>
+      </c>
+      <c r="C77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B78" s="2">
-        <v>0.98545138888888884</v>
-      </c>
-      <c r="C78" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9859722222222222</v>
+      </c>
+      <c r="C78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
       <c r="A79" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B79" s="2">
-        <v>2.7118055555555555E-2</v>
-      </c>
-      <c r="C79" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.027638888888889</v>
+      </c>
+      <c r="C79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
       <c r="A80" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B80" s="2">
-        <v>6.8784722222222219E-2</v>
-      </c>
-      <c r="C80" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0693055555555555</v>
+      </c>
+      <c r="C80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
       <c r="A81" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B81" s="2">
-        <v>0.11045138888888889</v>
-      </c>
-      <c r="C81" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1109722222222222</v>
+      </c>
+      <c r="C81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
       <c r="A82" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B82" s="2">
-        <v>0.15211805555555555</v>
-      </c>
-      <c r="C82" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1526388888888888</v>
+      </c>
+      <c r="C82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
       <c r="A83" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B83" s="2">
-        <v>0.19378472222222223</v>
-      </c>
-      <c r="C83" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1943055555555555</v>
+      </c>
+      <c r="C83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
       <c r="A84" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B84" s="2">
-        <v>0.23545138888888889</v>
-      </c>
-      <c r="C84" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2359722222222222</v>
+      </c>
+      <c r="C84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
       <c r="A85" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B85" s="2">
-        <v>0.27711805555555558</v>
-      </c>
-      <c r="C85" s="1">
+        <v>1.2776388888888888</v>
+      </c>
+      <c r="C85" s="3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
       <c r="A86" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B86" s="2">
-        <v>0.31878472222222221</v>
-      </c>
-      <c r="C86" s="1">
+        <v>1.3193055555555555</v>
+      </c>
+      <c r="C86" s="3">
         <v>18.5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
       <c r="A87" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B87" s="2">
-        <v>0.36045138888888889</v>
-      </c>
-      <c r="C87" s="1">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.3609722222222222</v>
+      </c>
+      <c r="C87" s="3">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
       <c r="A88" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B88" s="2">
-        <v>0.40211805555555558</v>
-      </c>
-      <c r="C88" s="1">
+        <v>1.4026388888888888</v>
+      </c>
+      <c r="C88" s="3">
         <v>29.3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
       <c r="A89" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B89" s="2">
-        <v>0.44378472222222221</v>
-      </c>
-      <c r="C89" s="1">
+        <v>1.4443055555555555</v>
+      </c>
+      <c r="C89" s="3">
         <v>41.3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
       <c r="A90" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B90" s="2">
-        <v>0.48545138888888889</v>
-      </c>
-      <c r="C90" s="1">
+        <v>1.4859722222222222</v>
+      </c>
+      <c r="C90" s="3">
         <v>124.2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
       <c r="A91" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B91" s="2">
-        <v>0.52711805555555558</v>
-      </c>
-      <c r="C91" s="1">
+        <v>1.5276388888888888</v>
+      </c>
+      <c r="C91" s="3">
         <v>203.6</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
       <c r="A92" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B92" s="2">
-        <v>0.56878472222222221</v>
-      </c>
-      <c r="C92" s="1">
+        <v>1.5693055555555555</v>
+      </c>
+      <c r="C92" s="3">
         <v>204.3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
       <c r="A93" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B93" s="2">
-        <v>0.61045138888888884</v>
-      </c>
-      <c r="C93" s="1">
+        <v>1.6109722222222222</v>
+      </c>
+      <c r="C93" s="3">
         <v>161.9</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
       <c r="A94" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B94" s="2">
-        <v>0.65211805555555558</v>
-      </c>
-      <c r="C94" s="1">
+        <v>1.6526388888888888</v>
+      </c>
+      <c r="C94" s="3">
         <v>97.2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
       <c r="A95" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B95" s="2">
-        <v>0.69378472222222221</v>
-      </c>
-      <c r="C95" s="1">
+        <v>1.6943055555555555</v>
+      </c>
+      <c r="C95" s="3">
         <v>180.9</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
       <c r="A96" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B96" s="2">
-        <v>0.73545138888888884</v>
-      </c>
-      <c r="C96" s="1">
-        <v>33.799999999999997</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7359722222222222</v>
+      </c>
+      <c r="C96" s="3">
+        <v>33.8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
       <c r="A97" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B97" s="2">
-        <v>0.77711805555555558</v>
-      </c>
-      <c r="C97" s="1">
-        <v>17.399999999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7776388888888888</v>
+      </c>
+      <c r="C97" s="3">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
       <c r="A98" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B98" s="2">
-        <v>0.81878472222222221</v>
-      </c>
-      <c r="C98" s="1">
+        <v>1.8193055555555555</v>
+      </c>
+      <c r="C98" s="3">
         <v>2.9</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
       <c r="A99" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B99" s="2">
-        <v>0.86045138888888884</v>
-      </c>
-      <c r="C99" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.8609722222222222</v>
+      </c>
+      <c r="C99" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
       <c r="A100" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B100" s="2">
-        <v>0.90211805555555558</v>
-      </c>
-      <c r="C100" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9026388888888888</v>
+      </c>
+      <c r="C100" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
       <c r="A101" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B101" s="2">
-        <v>0.94378472222222221</v>
-      </c>
-      <c r="C101" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9443055555555555</v>
+      </c>
+      <c r="C101" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
       <c r="A102" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B102" s="2">
-        <v>0.98545138888888884</v>
-      </c>
-      <c r="C102" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9859722222222222</v>
+      </c>
+      <c r="C102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
       <c r="A103" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B103" s="2">
-        <v>2.7118055555555555E-2</v>
-      </c>
-      <c r="C103" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.027638888888889</v>
+      </c>
+      <c r="C103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
       <c r="A104" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B104" s="2">
-        <v>6.8784722222222219E-2</v>
-      </c>
-      <c r="C104" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0693055555555555</v>
+      </c>
+      <c r="C104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
       <c r="A105" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B105" s="2">
-        <v>0.11045138888888889</v>
-      </c>
-      <c r="C105" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1109722222222222</v>
+      </c>
+      <c r="C105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
       <c r="A106" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B106" s="2">
-        <v>0.15211805555555555</v>
-      </c>
-      <c r="C106" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1526388888888888</v>
+      </c>
+      <c r="C106" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
       <c r="A107" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B107" s="2">
-        <v>0.19378472222222223</v>
-      </c>
-      <c r="C107" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1943055555555555</v>
+      </c>
+      <c r="C107" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
       <c r="A108" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B108" s="2">
-        <v>0.23545138888888889</v>
-      </c>
-      <c r="C108" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2359722222222222</v>
+      </c>
+      <c r="C108" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
       <c r="A109" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B109" s="2">
-        <v>0.27711805555555558</v>
-      </c>
-      <c r="C109" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2776388888888888</v>
+      </c>
+      <c r="C109" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
       <c r="A110" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B110" s="2">
-        <v>0.31878472222222221</v>
-      </c>
-      <c r="C110" s="1">
+        <v>1.3193055555555555</v>
+      </c>
+      <c r="C110" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
       <c r="A111" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B111" s="2">
-        <v>0.39898148148148149</v>
-      </c>
-      <c r="C111" s="1">
-        <v>71.599999999999994</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.3995023148148147</v>
+      </c>
+      <c r="C111" s="3">
+        <v>71.6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
       <c r="A112" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B112" s="2">
-        <v>0.44064814814814812</v>
-      </c>
-      <c r="C112" s="1">
+        <v>1.4411689814814814</v>
+      </c>
+      <c r="C112" s="3">
         <v>200.8</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
       <c r="A113" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B113" s="2">
-        <v>0.48231481481481481</v>
-      </c>
-      <c r="C113" s="1">
+        <v>1.4828356481481482</v>
+      </c>
+      <c r="C113" s="3">
         <v>301.8</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
       <c r="A114" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B114" s="2">
-        <v>0.52398148148148149</v>
-      </c>
-      <c r="C114" s="1">
+        <v>1.5245023148148147</v>
+      </c>
+      <c r="C114" s="3">
         <v>198.6</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B115" s="2">
-        <v>0.56564814814814812</v>
-      </c>
-      <c r="C115" s="1">
-        <v>142.19999999999999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.5661689814814816</v>
+      </c>
+      <c r="C115" s="3">
+        <v>142.2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
       <c r="A116" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B116" s="2">
-        <v>0.60731481481481486</v>
-      </c>
-      <c r="C116" s="1">
+        <v>1.6078356481481482</v>
+      </c>
+      <c r="C116" s="3">
         <v>91.2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
       <c r="A117" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B117" s="2">
-        <v>0.64898148148148149</v>
-      </c>
-      <c r="C117" s="1">
+        <v>1.6495023148148147</v>
+      </c>
+      <c r="C117" s="3">
         <v>362.3</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
       <c r="A118" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B118" s="2">
-        <v>0.69064814814814812</v>
-      </c>
-      <c r="C118" s="1">
+        <v>1.6911689814814816</v>
+      </c>
+      <c r="C118" s="3">
         <v>277.2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
       <c r="A119" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B119" s="2">
-        <v>0.73231481481481486</v>
-      </c>
-      <c r="C119" s="1">
+        <v>1.7328356481481482</v>
+      </c>
+      <c r="C119" s="3">
         <v>58.2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
       <c r="A120" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B120" s="2">
-        <v>0.77398148148148149</v>
-      </c>
-      <c r="C120" s="1">
+        <v>1.7745023148148147</v>
+      </c>
+      <c r="C120" s="3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
       <c r="A121" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B121" s="2">
-        <v>0.81564814814814812</v>
-      </c>
-      <c r="C121" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.8161689814814816</v>
+      </c>
+      <c r="C121" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
       <c r="A122" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B122" s="2">
-        <v>0.85731481481481486</v>
-      </c>
-      <c r="C122" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.8578356481481482</v>
+      </c>
+      <c r="C122" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
       <c r="A123" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B123" s="2">
-        <v>0.89898148148148149</v>
-      </c>
-      <c r="C123" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.8995023148148147</v>
+      </c>
+      <c r="C123" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
       <c r="A124" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B124" s="2">
-        <v>0.94064814814814812</v>
-      </c>
-      <c r="C124" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9411689814814816</v>
+      </c>
+      <c r="C124" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
       <c r="A125" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B125" s="2">
-        <v>0.98231481481481486</v>
-      </c>
-      <c r="C125" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9828356481481482</v>
+      </c>
+      <c r="C125" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
       <c r="A126" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B126" s="2">
-        <v>2.3981481481481482E-2</v>
-      </c>
-      <c r="C126" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.024502314814815</v>
+      </c>
+      <c r="C126" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
       <c r="A127" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B127" s="2">
-        <v>6.564814814814815E-2</v>
-      </c>
-      <c r="C127" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0661689814814814</v>
+      </c>
+      <c r="C127" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
       <c r="A128" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B128" s="2">
-        <v>0.10731481481481482</v>
-      </c>
-      <c r="C128" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1078356481481482</v>
+      </c>
+      <c r="C128" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
       <c r="A129" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B129" s="2">
-        <v>0.14898148148148149</v>
-      </c>
-      <c r="C129" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.149502314814815</v>
+      </c>
+      <c r="C129" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
       <c r="A130" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B130" s="2">
-        <v>0.19064814814814815</v>
-      </c>
-      <c r="C130" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1911689814814814</v>
+      </c>
+      <c r="C130" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
       <c r="A131" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B131" s="2">
-        <v>0.23231481481481481</v>
-      </c>
-      <c r="C131" s="1">
+        <v>1.2328356481481482</v>
+      </c>
+      <c r="C131" s="3">
         <v>3.1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
       <c r="A132" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B132" s="2">
-        <v>0.27398148148148149</v>
-      </c>
-      <c r="C132" s="1">
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2745023148148147</v>
+      </c>
+      <c r="C132" s="3">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
       <c r="A133" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B133" s="2">
-        <v>0.31564814814814812</v>
-      </c>
-      <c r="C133" s="1">
+        <v>1.3161689814814814</v>
+      </c>
+      <c r="C133" s="3">
         <v>33.1</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
       <c r="A134" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B134" s="2">
-        <v>0.35731481481481481</v>
-      </c>
-      <c r="C134" s="1">
+        <v>1.3578356481481482</v>
+      </c>
+      <c r="C134" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
       <c r="A135" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B135" s="2">
-        <v>0.39898148148148149</v>
-      </c>
-      <c r="C135" s="1">
+        <v>1.3995023148148147</v>
+      </c>
+      <c r="C135" s="3">
         <v>206.5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
       <c r="A136" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B136" s="2">
-        <v>0.44064814814814812</v>
-      </c>
-      <c r="C136" s="1">
+        <v>1.4411689814814814</v>
+      </c>
+      <c r="C136" s="3">
         <v>374.5</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
       <c r="A137" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B137" s="2">
-        <v>0.48231481481481481</v>
-      </c>
-      <c r="C137" s="1">
+        <v>1.4828356481481482</v>
+      </c>
+      <c r="C137" s="4">
         <v>312</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
       <c r="A138" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B138" s="2">
-        <v>0.52398148148148149</v>
-      </c>
-      <c r="C138" s="1">
+        <v>1.5245023148148147</v>
+      </c>
+      <c r="C138" s="3">
         <v>199.5</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
       <c r="A139" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B139" s="2">
-        <v>0.56564814814814812</v>
-      </c>
-      <c r="C139" s="1">
+        <v>1.5661689814814816</v>
+      </c>
+      <c r="C139" s="3">
         <v>112.9</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
       <c r="A140" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B140" s="2">
-        <v>0.60731481481481486</v>
-      </c>
-      <c r="C140" s="1">
+        <v>1.6078356481481482</v>
+      </c>
+      <c r="C140" s="3">
         <v>90.3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
       <c r="A141" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B141" s="2">
-        <v>0.64898148148148149</v>
-      </c>
-      <c r="C141" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.6495023148148147</v>
+      </c>
+      <c r="C141" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
       <c r="A142" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B142" s="2">
-        <v>0.69064814814814812</v>
-      </c>
-      <c r="C142" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.6911689814814816</v>
+      </c>
+      <c r="C142" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
       <c r="A143" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B143" s="2">
-        <v>0.73231481481481486</v>
-      </c>
-      <c r="C143" s="1">
+        <v>1.7328356481481482</v>
+      </c>
+      <c r="C143" s="3">
         <v>412.1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
       <c r="A144" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B144" s="2">
-        <v>0.77398148148148149</v>
-      </c>
-      <c r="C144" s="1">
-        <v>130.30000000000001</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7745023148148147</v>
+      </c>
+      <c r="C144" s="3">
+        <v>130.3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
       <c r="A145" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B145" s="2">
-        <v>0.81564814814814812</v>
-      </c>
-      <c r="C145" s="1">
+        <v>1.8161689814814816</v>
+      </c>
+      <c r="C145" s="3">
         <v>2.8</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
       <c r="A146" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B146" s="2">
-        <v>0.85731481481481486</v>
-      </c>
-      <c r="C146" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.8578356481481482</v>
+      </c>
+      <c r="C146" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
       <c r="A147" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B147" s="2">
-        <v>0.89898148148148149</v>
-      </c>
-      <c r="C147" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.8995023148148147</v>
+      </c>
+      <c r="C147" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
       <c r="A148" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B148" s="2">
-        <v>0.94064814814814812</v>
-      </c>
-      <c r="C148" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9411689814814816</v>
+      </c>
+      <c r="C148" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
       <c r="A149" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B149" s="2">
-        <v>0.98231481481481486</v>
-      </c>
-      <c r="C149" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9828356481481482</v>
+      </c>
+      <c r="C149" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
       <c r="A150" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B150" s="2">
-        <v>2.3981481481481482E-2</v>
-      </c>
-      <c r="C150" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.024502314814815</v>
+      </c>
+      <c r="C150" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
       <c r="A151" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B151" s="2">
-        <v>6.564814814814815E-2</v>
-      </c>
-      <c r="C151" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0661689814814814</v>
+      </c>
+      <c r="C151" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
       <c r="A152" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B152" s="2">
-        <v>0.10731481481481482</v>
-      </c>
-      <c r="C152" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1078356481481482</v>
+      </c>
+      <c r="C152" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25">
       <c r="A153" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B153" s="2">
-        <v>0.14898148148148149</v>
-      </c>
-      <c r="C153" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.149502314814815</v>
+      </c>
+      <c r="C153" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25">
       <c r="A154" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B154" s="2">
-        <v>0.19064814814814815</v>
-      </c>
-      <c r="C154" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1911689814814814</v>
+      </c>
+      <c r="C154" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25">
       <c r="A155" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B155" s="2">
-        <v>0.23231481481481481</v>
-      </c>
-      <c r="C155" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2328356481481482</v>
+      </c>
+      <c r="C155" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25">
       <c r="A156" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B156" s="2">
-        <v>0.27398148148148149</v>
-      </c>
-      <c r="C156" s="1">
+        <v>1.2745023148148147</v>
+      </c>
+      <c r="C156" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
       <c r="A157" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B157" s="2">
-        <v>0.31564814814814812</v>
-      </c>
-      <c r="C157" s="1">
+        <v>1.3161689814814814</v>
+      </c>
+      <c r="C157" s="3">
         <v>7.3</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
       <c r="A158" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B158" s="2">
-        <v>0.35731481481481481</v>
-      </c>
-      <c r="C158" s="1">
+        <v>1.3578356481481482</v>
+      </c>
+      <c r="C158" s="3">
         <v>31.3</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
       <c r="A159" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B159" s="2">
-        <v>0.39898148148148149</v>
-      </c>
-      <c r="C159" s="1">
+        <v>1.3995023148148147</v>
+      </c>
+      <c r="C159" s="3">
         <v>54.5</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
       <c r="A160" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B160" s="2">
-        <v>0.44064814814814812</v>
-      </c>
-      <c r="C160" s="1">
+        <v>1.4411689814814814</v>
+      </c>
+      <c r="C160" s="4">
         <v>152</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25">
       <c r="A161" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B161" s="2">
-        <v>0.48231481481481481</v>
-      </c>
-      <c r="C161" s="1">
+        <v>1.4828356481481482</v>
+      </c>
+      <c r="C161" s="3">
         <v>340.4</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25">
       <c r="A162" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B162" s="2">
-        <v>0.52398148148148149</v>
-      </c>
-      <c r="C162" s="1">
-        <v>327.39999999999998</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.5245023148148147</v>
+      </c>
+      <c r="C162" s="3">
+        <v>327.4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25">
       <c r="A163" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B163" s="2">
-        <v>0.56564814814814812</v>
-      </c>
-      <c r="C163" s="1">
+        <v>1.5661689814814816</v>
+      </c>
+      <c r="C163" s="3">
         <v>213.3</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25">
       <c r="A164" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B164" s="2">
-        <v>0.60731481481481486</v>
-      </c>
-      <c r="C164" s="1">
-        <v>161.80000000000001</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.6078356481481482</v>
+      </c>
+      <c r="C164" s="3">
+        <v>161.8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
       <c r="A165" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B165" s="2">
-        <v>0.64898148148148149</v>
-      </c>
-      <c r="C165" s="1">
-        <v>130.80000000000001</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.6495023148148147</v>
+      </c>
+      <c r="C165" s="3">
+        <v>130.8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
       <c r="A166" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B166" s="2">
-        <v>0.69064814814814812</v>
-      </c>
-      <c r="C166" s="1">
+        <v>1.6911689814814816</v>
+      </c>
+      <c r="C166" s="3">
         <v>233.6</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
       <c r="A167" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B167" s="2">
-        <v>0.73231481481481486</v>
-      </c>
-      <c r="C167" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7328356481481482</v>
+      </c>
+      <c r="C167" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
       <c r="A168" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B168" s="2">
-        <v>0.77398148148148149</v>
-      </c>
-      <c r="C168" s="1">
+        <v>1.7745023148148147</v>
+      </c>
+      <c r="C168" s="4">
         <v>165</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
       <c r="A169" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B169" s="2">
-        <v>0.81564814814814812</v>
-      </c>
-      <c r="C169" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.8161689814814816</v>
+      </c>
+      <c r="C169" s="3">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
       <c r="A170" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B170" s="2">
-        <v>0.85731481481481486</v>
-      </c>
-      <c r="C170" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.8578356481481482</v>
+      </c>
+      <c r="C170" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
       <c r="A171" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B171" s="2">
-        <v>0.89898148148148149</v>
-      </c>
-      <c r="C171" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.8995023148148147</v>
+      </c>
+      <c r="C171" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
       <c r="A172" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B172" s="2">
-        <v>0.94064814814814812</v>
-      </c>
-      <c r="C172" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9411689814814816</v>
+      </c>
+      <c r="C172" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
       <c r="A173" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B173" s="2">
-        <v>0.98231481481481486</v>
-      </c>
-      <c r="C173" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9828356481481482</v>
+      </c>
+      <c r="C173" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
       <c r="A174" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B174" s="2">
-        <v>2.3981481481481482E-2</v>
-      </c>
-      <c r="C174" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.024502314814815</v>
+      </c>
+      <c r="C174" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
       <c r="A175" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B175" s="2">
-        <v>6.564814814814815E-2</v>
-      </c>
-      <c r="C175" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0661689814814814</v>
+      </c>
+      <c r="C175" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
       <c r="A176" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B176" s="2">
-        <v>0.10731481481481482</v>
-      </c>
-      <c r="C176" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1078356481481482</v>
+      </c>
+      <c r="C176" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
       <c r="A177" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B177" s="2">
-        <v>0.14898148148148149</v>
-      </c>
-      <c r="C177" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.149502314814815</v>
+      </c>
+      <c r="C177" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
       <c r="A178" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B178" s="2">
-        <v>0.19064814814814815</v>
-      </c>
-      <c r="C178" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1911689814814814</v>
+      </c>
+      <c r="C178" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
       <c r="A179" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B179" s="2">
-        <v>0.23231481481481481</v>
-      </c>
-      <c r="C179" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2328356481481482</v>
+      </c>
+      <c r="C179" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
       <c r="A180" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B180" s="2">
-        <v>0.27398148148148149</v>
-      </c>
-      <c r="C180" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2745023148148147</v>
+      </c>
+      <c r="C180" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
       <c r="A181" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B181" s="2">
-        <v>0.31564814814814812</v>
-      </c>
-      <c r="C181" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.3161689814814814</v>
+      </c>
+      <c r="C181" s="3">
+        <v>8.2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
       <c r="A182" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B182" s="2">
-        <v>0.35731481481481481</v>
-      </c>
-      <c r="C182" s="1">
+        <v>1.3578356481481482</v>
+      </c>
+      <c r="C182" s="3">
         <v>28.3</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
       <c r="A183" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B183" s="2">
-        <v>0.39898148148148149</v>
-      </c>
-      <c r="C183" s="1">
+        <v>1.3995023148148147</v>
+      </c>
+      <c r="C183" s="3">
         <v>50.1</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
       <c r="A184" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B184" s="2">
-        <v>0.44064814814814812</v>
-      </c>
-      <c r="C184" s="1">
+        <v>1.4411689814814814</v>
+      </c>
+      <c r="C184" s="3">
         <v>340.4</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
       <c r="A185" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B185" s="2">
-        <v>0.45871527777777776</v>
-      </c>
-      <c r="C185" s="1">
-        <v>327.39999999999998</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.4592361111111112</v>
+      </c>
+      <c r="C185" s="3">
+        <v>327.4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
       <c r="A186" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B186" s="2">
-        <v>0.50038194444444439</v>
-      </c>
-      <c r="C186" s="1">
+        <v>1.5009027777777777</v>
+      </c>
+      <c r="C186" s="3">
         <v>354.4</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
       <c r="A187" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B187" s="2">
-        <v>0.54204861111111113</v>
-      </c>
-      <c r="C187" s="1">
+        <v>1.5425694444444444</v>
+      </c>
+      <c r="C187" s="4">
         <v>355</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
       <c r="A188" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B188" s="2">
-        <v>0.58371527777777776</v>
-      </c>
-      <c r="C188" s="1">
-        <v>315.89999999999998</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.5842361111111112</v>
+      </c>
+      <c r="C188" s="3">
+        <v>315.9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25">
       <c r="A189" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B189" s="2">
-        <v>0.62538194444444439</v>
-      </c>
-      <c r="C189" s="1">
+        <v>1.6259027777777777</v>
+      </c>
+      <c r="C189" s="3">
         <v>166.6</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
       <c r="A190" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B190" s="2">
-        <v>0.66704861111111113</v>
-      </c>
-      <c r="C190" s="1">
+        <v>1.6675694444444444</v>
+      </c>
+      <c r="C190" s="3">
         <v>73.8</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25">
       <c r="A191" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B191" s="2">
-        <v>0.70871527777777776</v>
-      </c>
-      <c r="C191" s="1">
+        <v>1.7092361111111112</v>
+      </c>
+      <c r="C191" s="3">
         <v>297.8</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25">
       <c r="A192" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B192" s="2">
-        <v>0.75038194444444439</v>
-      </c>
-      <c r="C192" s="1">
+        <v>1.7509027777777777</v>
+      </c>
+      <c r="C192" s="3">
         <v>314.8</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="17.25">
       <c r="A193" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B193" s="2">
-        <v>0.79204861111111113</v>
-      </c>
-      <c r="C193" s="1">
-        <v>65.400000000000006</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7925694444444444</v>
+      </c>
+      <c r="C193" s="3">
+        <v>65.4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="17.25">
       <c r="A194" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B194" s="2">
-        <v>0.83371527777777776</v>
-      </c>
-      <c r="C194" s="1">
+        <v>1.8342361111111112</v>
+      </c>
+      <c r="C194" s="3">
         <v>0.9</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25">
       <c r="A195" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B195" s="2">
-        <v>0.87538194444444439</v>
-      </c>
-      <c r="C195" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.8759027777777777</v>
+      </c>
+      <c r="C195" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25">
       <c r="A196" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B196" s="2">
-        <v>0.91704861111111113</v>
-      </c>
-      <c r="C196" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9175694444444444</v>
+      </c>
+      <c r="C196" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="17.25">
       <c r="A197" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B197" s="2">
-        <v>0.95871527777777776</v>
-      </c>
-      <c r="C197" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9592361111111112</v>
+      </c>
+      <c r="C197" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="17.25">
       <c r="A198" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B198" s="2">
-        <v>3.8194444444444446E-4</v>
-      </c>
-      <c r="C198" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0009027777777777</v>
+      </c>
+      <c r="C198" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="17.25">
       <c r="A199" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B199" s="2">
-        <v>4.2048611111111113E-2</v>
-      </c>
-      <c r="C199" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0425694444444444</v>
+      </c>
+      <c r="C199" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="17.25">
       <c r="A200" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B200" s="2">
-        <v>8.3715277777777777E-2</v>
-      </c>
-      <c r="C200" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0842361111111112</v>
+      </c>
+      <c r="C200" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="17.25">
       <c r="A201" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B201" s="2">
-        <v>0.12538194444444445</v>
-      </c>
-      <c r="C201" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1259027777777777</v>
+      </c>
+      <c r="C201" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="17.25">
       <c r="A202" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B202" s="2">
-        <v>0.16704861111111111</v>
-      </c>
-      <c r="C202" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1675694444444444</v>
+      </c>
+      <c r="C202" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="17.25">
       <c r="A203" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B203" s="2">
-        <v>0.20871527777777779</v>
-      </c>
-      <c r="C203" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2092361111111112</v>
+      </c>
+      <c r="C203" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="17.25">
       <c r="A204" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B204" s="2">
-        <v>0.25038194444444445</v>
-      </c>
-      <c r="C204" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2509027777777777</v>
+      </c>
+      <c r="C204" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="17.25">
       <c r="A205" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B205" s="2">
-        <v>0.29204861111111113</v>
-      </c>
-      <c r="C205" s="1">
+        <v>1.2925694444444444</v>
+      </c>
+      <c r="C205" s="3">
         <v>1.8</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="17.25">
       <c r="A206" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B206" s="2">
-        <v>0.33371527777777776</v>
-      </c>
-      <c r="C206" s="1">
+        <v>1.3342361111111112</v>
+      </c>
+      <c r="C206" s="3">
         <v>21.3</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="17.25">
       <c r="A207" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B207" s="2">
-        <v>0.37538194444444445</v>
-      </c>
-      <c r="C207" s="1">
+        <v>1.3759027777777777</v>
+      </c>
+      <c r="C207" s="3">
         <v>37.4</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="17.25">
       <c r="A208" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B208" s="2">
-        <v>0.41704861111111113</v>
-      </c>
-      <c r="C208" s="1">
+        <v>1.4175694444444444</v>
+      </c>
+      <c r="C208" s="4">
         <v>53</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="17.25">
       <c r="A209" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B209" s="2">
-        <v>0.45871527777777776</v>
-      </c>
-      <c r="C209" s="1">
+        <v>1.4592361111111112</v>
+      </c>
+      <c r="C209" s="3">
         <v>202.7</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="17.25">
       <c r="A210" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B210" s="2">
-        <v>0.50038194444444439</v>
-      </c>
-      <c r="C210" s="1">
-        <v>278.39999999999998</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.5009027777777777</v>
+      </c>
+      <c r="C210" s="3">
+        <v>278.4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="17.25">
       <c r="A211" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B211" s="2">
-        <v>0.54204861111111113</v>
-      </c>
-      <c r="C211" s="1">
+        <v>1.5425694444444444</v>
+      </c>
+      <c r="C211" s="3">
         <v>366.2</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="17.25">
       <c r="A212" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B212" s="2">
-        <v>0.58371527777777776</v>
-      </c>
-      <c r="C212" s="1">
+        <v>1.5842361111111112</v>
+      </c>
+      <c r="C212" s="4">
         <v>320</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="17.25">
       <c r="A213" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B213" s="2">
-        <v>0.62538194444444439</v>
-      </c>
-      <c r="C213" s="1">
+        <v>1.6259027777777777</v>
+      </c>
+      <c r="C213" s="3">
         <v>194.9</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="17.25">
       <c r="A214" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B214" s="2">
-        <v>0.66704861111111113</v>
-      </c>
-      <c r="C214" s="1">
+        <v>1.6675694444444444</v>
+      </c>
+      <c r="C214" s="3">
         <v>126.2</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="17.25">
       <c r="A215" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B215" s="2">
-        <v>0.70871527777777776</v>
-      </c>
-      <c r="C215" s="1">
+        <v>1.7092361111111112</v>
+      </c>
+      <c r="C215" s="3">
         <v>218.4</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="17.25">
       <c r="A216" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B216" s="2">
-        <v>0.75038194444444439</v>
-      </c>
-      <c r="C216" s="1">
+        <v>1.7509027777777777</v>
+      </c>
+      <c r="C216" s="3">
         <v>202.5</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="17.25">
       <c r="A217" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B217" s="2">
-        <v>0.79204861111111113</v>
-      </c>
-      <c r="C217" s="1">
+        <v>1.7925694444444444</v>
+      </c>
+      <c r="C217" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="17.25">
       <c r="A218" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B218" s="2">
-        <v>0.83371527777777776</v>
-      </c>
-      <c r="C218" s="1">
+        <v>1.8342361111111112</v>
+      </c>
+      <c r="C218" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="17.25">
       <c r="A219" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B219" s="2">
-        <v>0.87538194444444439</v>
-      </c>
-      <c r="C219" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.8759027777777777</v>
+      </c>
+      <c r="C219" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="17.25">
       <c r="A220" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B220" s="2">
-        <v>0.91704861111111113</v>
-      </c>
-      <c r="C220" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9175694444444444</v>
+      </c>
+      <c r="C220" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="17.25">
       <c r="A221" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B221" s="2">
-        <v>0.95871527777777776</v>
-      </c>
-      <c r="C221" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9592361111111112</v>
+      </c>
+      <c r="C221" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="17.25">
       <c r="A222" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B222" s="2">
-        <v>3.8194444444444446E-4</v>
-      </c>
-      <c r="C222" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0009027777777777</v>
+      </c>
+      <c r="C222" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="17.25">
       <c r="A223" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B223" s="2">
-        <v>4.2048611111111113E-2</v>
-      </c>
-      <c r="C223" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0425694444444444</v>
+      </c>
+      <c r="C223" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="17.25">
       <c r="A224" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B224" s="2">
-        <v>8.3715277777777777E-2</v>
-      </c>
-      <c r="C224" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0842361111111112</v>
+      </c>
+      <c r="C224" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="17.25">
       <c r="A225" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B225" s="2">
-        <v>0.12538194444444445</v>
-      </c>
-      <c r="C225" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1259027777777777</v>
+      </c>
+      <c r="C225" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="17.25">
       <c r="A226" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B226" s="2">
-        <v>0.16704861111111111</v>
-      </c>
-      <c r="C226" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1675694444444444</v>
+      </c>
+      <c r="C226" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="17.25">
       <c r="A227" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B227" s="2">
-        <v>0.20871527777777779</v>
-      </c>
-      <c r="C227" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2092361111111112</v>
+      </c>
+      <c r="C227" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="17.25">
       <c r="A228" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B228" s="2">
-        <v>0.25038194444444445</v>
-      </c>
-      <c r="C228" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2509027777777777</v>
+      </c>
+      <c r="C228" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="17.25">
       <c r="A229" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B229" s="2">
-        <v>0.29204861111111113</v>
-      </c>
-      <c r="C229" s="1">
+        <v>1.2925694444444444</v>
+      </c>
+      <c r="C229" s="3">
         <v>1.8</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="17.25">
       <c r="A230" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B230" s="2">
-        <v>0.33371527777777776</v>
-      </c>
-      <c r="C230" s="1">
+        <v>1.3342361111111112</v>
+      </c>
+      <c r="C230" s="3">
         <v>15.5</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="17.25">
       <c r="A231" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B231" s="2">
-        <v>0.37538194444444445</v>
-      </c>
-      <c r="C231" s="1">
+        <v>1.3759027777777777</v>
+      </c>
+      <c r="C231" s="3">
         <v>26.8</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="17.25">
       <c r="A232" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B232" s="2">
-        <v>0.41704861111111113</v>
-      </c>
-      <c r="C232" s="1">
+        <v>1.4175694444444444</v>
+      </c>
+      <c r="C232" s="3">
         <v>39.5</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="17.25">
       <c r="A233" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B233" s="2">
-        <v>0.45871527777777776</v>
-      </c>
-      <c r="C233" s="1">
+        <v>1.4592361111111112</v>
+      </c>
+      <c r="C233" s="3">
         <v>177.1</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="17.25">
       <c r="A234" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B234" s="2">
-        <v>0.50038194444444439</v>
-      </c>
-      <c r="C234" s="1">
+        <v>1.5009027777777777</v>
+      </c>
+      <c r="C234" s="3">
         <v>359.2</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="17.25">
       <c r="A235" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B235" s="2">
-        <v>0.54204861111111113</v>
-      </c>
-      <c r="C235" s="1">
+        <v>1.5425694444444444</v>
+      </c>
+      <c r="C235" s="4">
         <v>365</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="17.25">
       <c r="A236" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B236" s="2">
-        <v>0.58371527777777776</v>
-      </c>
-      <c r="C236" s="1">
+        <v>1.5842361111111112</v>
+      </c>
+      <c r="C236" s="3">
         <v>284.8</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="17.25">
       <c r="A237" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B237" s="2">
-        <v>0.62538194444444439</v>
-      </c>
-      <c r="C237" s="1">
+        <v>1.6259027777777777</v>
+      </c>
+      <c r="C237" s="3">
         <v>141.5</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="17.25">
       <c r="A238" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B238" s="2">
-        <v>0.66704861111111113</v>
-      </c>
-      <c r="C238" s="1">
+        <v>1.6675694444444444</v>
+      </c>
+      <c r="C238" s="3">
         <v>104.1</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="17.25">
       <c r="A239" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B239" s="2">
-        <v>0.70871527777777776</v>
-      </c>
-      <c r="C239" s="1">
+        <v>1.7092361111111112</v>
+      </c>
+      <c r="C239" s="3">
         <v>296.7</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="17.25">
       <c r="A240" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B240" s="2">
-        <v>0.75038194444444439</v>
-      </c>
-      <c r="C240" s="1">
-        <v>314.60000000000002</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7509027777777777</v>
+      </c>
+      <c r="C240" s="3">
+        <v>314.6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="17.25">
       <c r="A241" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B241" s="2">
-        <v>0.79204861111111113</v>
-      </c>
-      <c r="C241" s="1">
+        <v>1.7925694444444444</v>
+      </c>
+      <c r="C241" s="3">
         <v>57.5</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="17.25">
       <c r="A242" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B242" s="2">
-        <v>0.83371527777777776</v>
-      </c>
-      <c r="C242" s="1">
+        <v>1.8342361111111112</v>
+      </c>
+      <c r="C242" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="17.25">
       <c r="A243" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B243" s="2">
-        <v>0.87538194444444439</v>
-      </c>
-      <c r="C243" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.8759027777777777</v>
+      </c>
+      <c r="C243" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="17.25">
       <c r="A244" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B244" s="2">
-        <v>0.91704861111111113</v>
-      </c>
-      <c r="C244" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9175694444444444</v>
+      </c>
+      <c r="C244" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="17.25">
       <c r="A245" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B245" s="2">
-        <v>0.95871527777777776</v>
-      </c>
-      <c r="C245" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9592361111111112</v>
+      </c>
+      <c r="C245" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="17.25">
       <c r="A246" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B246" s="2">
-        <v>3.8194444444444446E-4</v>
-      </c>
-      <c r="C246" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0009027777777777</v>
+      </c>
+      <c r="C246" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="17.25">
       <c r="A247" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B247" s="2">
-        <v>4.2048611111111113E-2</v>
-      </c>
-      <c r="C247" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0425694444444444</v>
+      </c>
+      <c r="C247" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="17.25">
       <c r="A248" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B248" s="2">
-        <v>8.3715277777777777E-2</v>
-      </c>
-      <c r="C248" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0842361111111112</v>
+      </c>
+      <c r="C248" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="17.25">
       <c r="A249" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B249" s="2">
-        <v>0.12538194444444445</v>
-      </c>
-      <c r="C249" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1259027777777777</v>
+      </c>
+      <c r="C249" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="17.25">
       <c r="A250" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B250" s="2">
-        <v>0.16704861111111111</v>
-      </c>
-      <c r="C250" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1675694444444444</v>
+      </c>
+      <c r="C250" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="17.25">
       <c r="A251" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B251" s="2">
-        <v>0.20871527777777779</v>
-      </c>
-      <c r="C251" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2092361111111112</v>
+      </c>
+      <c r="C251" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="17.25">
       <c r="A252" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B252" s="2">
-        <v>0.25038194444444445</v>
-      </c>
-      <c r="C252" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2509027777777777</v>
+      </c>
+      <c r="C252" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="17.25">
       <c r="A253" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B253" s="2">
-        <v>0.29204861111111113</v>
-      </c>
-      <c r="C253" s="1">
+        <v>1.2925694444444444</v>
+      </c>
+      <c r="C253" s="3">
         <v>2.4</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="17.25">
       <c r="A254" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B254" s="2">
-        <v>0.33371527777777776</v>
-      </c>
-      <c r="C254" s="1">
+        <v>1.3342361111111112</v>
+      </c>
+      <c r="C254" s="3">
         <v>15.7</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="17.25">
       <c r="A255" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B255" s="2">
-        <v>0.37538194444444445</v>
-      </c>
-      <c r="C255" s="1">
+        <v>1.3759027777777777</v>
+      </c>
+      <c r="C255" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="17.25">
       <c r="A256" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B256" s="2">
-        <v>0.41400462962962964</v>
-      </c>
-      <c r="C256" s="1">
+        <v>1.4145254629629629</v>
+      </c>
+      <c r="C256" s="3">
         <v>65.8</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="17.25">
       <c r="A257" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B257" s="2">
-        <v>0.45567129629629627</v>
-      </c>
-      <c r="C257" s="1">
-        <v>305.10000000000002</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.4561921296296296</v>
+      </c>
+      <c r="C257" s="3">
+        <v>305.1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="17.25">
       <c r="A258" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B258" s="2">
-        <v>0.49733796296296295</v>
-      </c>
-      <c r="C258" s="1">
+        <v>1.4978587962962964</v>
+      </c>
+      <c r="C258" s="3">
         <v>376.4</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="17.25">
       <c r="A259" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B259" s="2">
-        <v>0.53900462962962958</v>
-      </c>
-      <c r="C259" s="1">
+        <v>1.5395254629629629</v>
+      </c>
+      <c r="C259" s="3">
         <v>384.1</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="17.25">
       <c r="A260" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B260" s="2">
-        <v>0.58067129629629632</v>
-      </c>
-      <c r="C260" s="1">
+        <v>1.5811921296296296</v>
+      </c>
+      <c r="C260" s="3">
         <v>229.2</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="17.25">
       <c r="A261" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B261" s="2">
-        <v>0.62233796296296295</v>
-      </c>
-      <c r="C261" s="1">
+        <v>1.6228587962962964</v>
+      </c>
+      <c r="C261" s="3">
         <v>127.1</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="17.25">
       <c r="A262" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B262" s="2">
-        <v>0.66400462962962958</v>
-      </c>
-      <c r="C262" s="1">
+        <v>1.6645254629629629</v>
+      </c>
+      <c r="C262" s="3">
         <v>121.9</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="17.25">
       <c r="A263" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B263" s="2">
-        <v>0.70567129629629632</v>
-      </c>
-      <c r="C263" s="1">
+        <v>1.7061921296296296</v>
+      </c>
+      <c r="C263" s="3">
         <v>276.7</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="17.25">
       <c r="A264" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B264" s="2">
-        <v>0.74733796296296295</v>
-      </c>
-      <c r="C264" s="1">
-        <v>79.400000000000006</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7478587962962964</v>
+      </c>
+      <c r="C264" s="3">
+        <v>79.4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="17.25">
       <c r="A265" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B265" s="2">
-        <v>0.78900462962962958</v>
-      </c>
-      <c r="C265" s="1">
+        <v>1.7895254629629629</v>
+      </c>
+      <c r="C265" s="3">
         <v>5.6</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="17.25">
       <c r="A266" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B266" s="2">
-        <v>0.83067129629629632</v>
-      </c>
-      <c r="C266" s="1">
+        <v>1.8311921296296296</v>
+      </c>
+      <c r="C266" s="3">
         <v>0.6</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="17.25">
       <c r="A267" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B267" s="2">
-        <v>0.87233796296296295</v>
-      </c>
-      <c r="C267" s="1">
+        <v>1.8728587962962964</v>
+      </c>
+      <c r="C267" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="17.25">
       <c r="A268" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B268" s="2">
-        <v>0.91400462962962958</v>
-      </c>
-      <c r="C268" s="1">
+        <v>1.9145254629629629</v>
+      </c>
+      <c r="C268" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="17.25">
       <c r="A269" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B269" s="2">
-        <v>0.95567129629629632</v>
-      </c>
-      <c r="C269" s="1">
+        <v>1.9561921296296296</v>
+      </c>
+      <c r="C269" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="17.25">
       <c r="A270" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B270" s="2">
-        <v>0.99733796296296295</v>
-      </c>
-      <c r="C270" s="1">
+        <v>1.9978587962962964</v>
+      </c>
+      <c r="C270" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="17.25">
       <c r="A271" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B271" s="2">
-        <v>3.9004629629629632E-2</v>
-      </c>
-      <c r="C271" s="1">
+        <v>1.0395254629629629</v>
+      </c>
+      <c r="C271" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="17.25">
       <c r="A272" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B272" s="2">
-        <v>8.0671296296296297E-2</v>
-      </c>
-      <c r="C272" s="1">
+        <v>1.0811921296296296</v>
+      </c>
+      <c r="C272" s="3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="17.25">
       <c r="A273" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B273" s="2">
-        <v>0.12233796296296297</v>
-      </c>
-      <c r="C273" s="1">
+        <v>1.1228587962962964</v>
+      </c>
+      <c r="C273" s="3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="17.25">
       <c r="A274" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B274" s="2">
-        <v>0.16400462962962964</v>
-      </c>
-      <c r="C274" s="1">
+        <v>1.1645254629629629</v>
+      </c>
+      <c r="C274" s="3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="17.25">
       <c r="A275" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B275" s="2">
-        <v>0.2056712962962963</v>
-      </c>
-      <c r="C275" s="1">
+        <v>1.2061921296296296</v>
+      </c>
+      <c r="C275" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="17.25">
       <c r="A276" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B276" s="2">
-        <v>0.24733796296296295</v>
-      </c>
-      <c r="C276" s="1">
+        <v>1.2478587962962964</v>
+      </c>
+      <c r="C276" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="17.25">
       <c r="A277" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B277" s="2">
-        <v>0.28900462962962964</v>
-      </c>
-      <c r="C277" s="1">
+        <v>1.2895254629629629</v>
+      </c>
+      <c r="C277" s="3">
         <v>5.8</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="17.25">
       <c r="A278" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B278" s="2">
-        <v>0.33067129629629627</v>
-      </c>
-      <c r="C278" s="1">
+        <v>1.3311921296296296</v>
+      </c>
+      <c r="C278" s="3">
         <v>18.5</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="17.25">
       <c r="A279" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B279" s="2">
-        <v>0.37233796296296295</v>
-      </c>
-      <c r="C279" s="1">
+        <v>1.3728587962962964</v>
+      </c>
+      <c r="C279" s="3">
         <v>30.6</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="17.25">
       <c r="A280" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B280" s="2">
-        <v>0.41400462962962964</v>
-      </c>
-      <c r="C280" s="1">
-        <v>78.400000000000006</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.4145254629629629</v>
+      </c>
+      <c r="C280" s="3">
+        <v>78.4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="17.25">
       <c r="A281" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B281" s="2">
-        <v>0.45567129629629627</v>
-      </c>
-      <c r="C281" s="1">
+        <v>1.4561921296296296</v>
+      </c>
+      <c r="C281" s="3">
         <v>270.3</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="17.25">
       <c r="A282" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B282" s="2">
-        <v>0.49733796296296295</v>
-      </c>
-      <c r="C282" s="1">
+        <v>1.4978587962962964</v>
+      </c>
+      <c r="C282" s="3">
         <v>323.3</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="17.25">
       <c r="A283" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B283" s="2">
-        <v>0.53900462962962958</v>
-      </c>
-      <c r="C283" s="1">
+        <v>1.5395254629629629</v>
+      </c>
+      <c r="C283" s="3">
         <v>343.7</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="17.25">
       <c r="A284" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B284" s="2">
-        <v>0.58067129629629632</v>
-      </c>
-      <c r="C284" s="1">
+        <v>1.5811921296296296</v>
+      </c>
+      <c r="C284" s="3">
         <v>222.2</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="17.25">
       <c r="A285" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B285" s="2">
-        <v>0.62233796296296295</v>
-      </c>
-      <c r="C285" s="1">
+        <v>1.6228587962962964</v>
+      </c>
+      <c r="C285" s="3">
         <v>135.4</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="17.25">
       <c r="A286" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B286" s="2">
-        <v>0.66400462962962958</v>
-      </c>
-      <c r="C286" s="1">
+        <v>1.6645254629629629</v>
+      </c>
+      <c r="C286" s="3">
         <v>155.6</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="17.25">
       <c r="A287" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B287" s="2">
-        <v>0.70567129629629632</v>
-      </c>
-      <c r="C287" s="1">
+        <v>1.7061921296296296</v>
+      </c>
+      <c r="C287" s="3">
         <v>260.8</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="17.25">
       <c r="A288" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B288" s="2">
-        <v>0.74733796296296295</v>
-      </c>
-      <c r="C288" s="1">
+        <v>1.7478587962962964</v>
+      </c>
+      <c r="C288" s="3">
         <v>111.9</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="17.25">
       <c r="A289" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B289" s="2">
-        <v>0.83067129629629632</v>
-      </c>
-      <c r="C289" s="1">
+        <v>1.8311921296296296</v>
+      </c>
+      <c r="C289" s="3">
         <v>4.8</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="17.25">
       <c r="A290" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B290" s="2">
-        <v>0.87233796296296295</v>
-      </c>
-      <c r="C290" s="1">
+        <v>1.8728587962962964</v>
+      </c>
+      <c r="C290" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="17.25">
       <c r="A291" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B291" s="2">
-        <v>0.91400462962962958</v>
-      </c>
-      <c r="C291" s="1">
+        <v>1.9145254629629629</v>
+      </c>
+      <c r="C291" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="17.25">
       <c r="A292" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B292" s="2">
-        <v>0.95567129629629632</v>
-      </c>
-      <c r="C292" s="1">
+        <v>1.9561921296296296</v>
+      </c>
+      <c r="C292" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="17.25">
       <c r="A293" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B293" s="2">
-        <v>0.99733796296296295</v>
-      </c>
-      <c r="C293" s="1">
+        <v>1.9978587962962964</v>
+      </c>
+      <c r="C293" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="17.25">
       <c r="A294" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B294" s="2">
-        <v>3.9004629629629632E-2</v>
-      </c>
-      <c r="C294" s="1">
+        <v>1.0395254629629629</v>
+      </c>
+      <c r="C294" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="17.25">
       <c r="A295" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B295" s="2">
-        <v>8.0671296296296297E-2</v>
-      </c>
-      <c r="C295" s="1">
+        <v>1.0811921296296296</v>
+      </c>
+      <c r="C295" s="3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="17.25">
       <c r="A296" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B296" s="2">
-        <v>0.12233796296296297</v>
-      </c>
-      <c r="C296" s="1">
+        <v>1.1228587962962964</v>
+      </c>
+      <c r="C296" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="17.25">
       <c r="A297" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B297" s="2">
-        <v>0.16400462962962964</v>
-      </c>
-      <c r="C297" s="1">
+        <v>1.1645254629629629</v>
+      </c>
+      <c r="C297" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="17.25">
       <c r="A298" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B298" s="2">
-        <v>0.2056712962962963</v>
-      </c>
-      <c r="C298" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2061921296296296</v>
+      </c>
+      <c r="C298" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="17.25">
       <c r="A299" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B299" s="2">
-        <v>0.24733796296296295</v>
-      </c>
-      <c r="C299" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2478587962962964</v>
+      </c>
+      <c r="C299" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="17.25">
       <c r="A300" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B300" s="2">
-        <v>0.28900462962962964</v>
-      </c>
-      <c r="C300" s="1">
+        <v>1.2895254629629629</v>
+      </c>
+      <c r="C300" s="3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="17.25">
       <c r="A301" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B301" s="2">
-        <v>0.33067129629629627</v>
-      </c>
-      <c r="C301" s="1">
+        <v>1.3311921296296296</v>
+      </c>
+      <c r="C301" s="3">
         <v>6.9</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="17.25">
       <c r="A302" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B302" s="2">
-        <v>0.37233796296296295</v>
-      </c>
-      <c r="C302" s="1">
+        <v>1.3728587962962964</v>
+      </c>
+      <c r="C302" s="3">
         <v>21.2</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="17.25">
       <c r="A303" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B303" s="2">
-        <v>0.41400462962962964</v>
-      </c>
-      <c r="C303" s="1">
+        <v>1.4145254629629629</v>
+      </c>
+      <c r="C303" s="3">
         <v>30.9</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="17.25">
       <c r="A304" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B304" s="2">
-        <v>0.45567129629629627</v>
-      </c>
-      <c r="C304" s="1">
-        <v>81.400000000000006</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.4561921296296296</v>
+      </c>
+      <c r="C304" s="3">
+        <v>81.4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="17.25">
       <c r="A305" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B305" s="2">
-        <v>0.49733796296296295</v>
-      </c>
-      <c r="C305" s="1">
+        <v>1.4978587962962964</v>
+      </c>
+      <c r="C305" s="3">
         <v>284.8</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="17.25">
       <c r="A306" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B306" s="2">
-        <v>0.53900462962962958</v>
-      </c>
-      <c r="C306" s="1">
+        <v>1.5395254629629629</v>
+      </c>
+      <c r="C306" s="3">
         <v>363.7</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="17.25">
       <c r="A307" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B307" s="2">
-        <v>0.58067129629629632</v>
-      </c>
-      <c r="C307" s="1">
+        <v>1.5811921296296296</v>
+      </c>
+      <c r="C307" s="3">
         <v>375.3</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="17.25">
       <c r="A308" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B308" s="2">
-        <v>0.62233796296296295</v>
-      </c>
-      <c r="C308" s="1">
-        <v>279.10000000000002</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.6228587962962964</v>
+      </c>
+      <c r="C308" s="3">
+        <v>279.1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="17.25">
       <c r="A309" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B309" s="2">
-        <v>0.66400462962962958</v>
-      </c>
-      <c r="C309" s="1">
-        <v>131.30000000000001</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.6645254629629629</v>
+      </c>
+      <c r="C309" s="3">
+        <v>131.3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="17.25">
       <c r="A310" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B310" s="2">
-        <v>0.70567129629629632</v>
-      </c>
-      <c r="C310" s="1">
+        <v>1.7061921296296296</v>
+      </c>
+      <c r="C310" s="3">
         <v>140.4</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="17.25">
       <c r="A311" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B311" s="2">
-        <v>0.74729166666666669</v>
-      </c>
-      <c r="C311" s="1">
+        <v>1.7478125</v>
+      </c>
+      <c r="C311" s="3">
         <v>166.9</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="17.25">
       <c r="A312" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B312" s="2">
-        <v>0.78895833333333332</v>
-      </c>
-      <c r="C312" s="1">
+        <v>1.7894791666666667</v>
+      </c>
+      <c r="C312" s="3">
         <v>6.4</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="17.25">
       <c r="A313" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B313" s="2">
-        <v>0.83062499999999995</v>
-      </c>
-      <c r="C313" s="1">
+        <v>1.8311458333333333</v>
+      </c>
+      <c r="C313" s="3">
         <v>0.6</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="17.25">
       <c r="A314" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B314" s="2">
-        <v>0.87229166666666669</v>
-      </c>
-      <c r="C314" s="1">
+        <v>1.8728125</v>
+      </c>
+      <c r="C314" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="17.25">
       <c r="A315" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B315" s="2">
-        <v>0.91395833333333332</v>
-      </c>
-      <c r="C315" s="1">
+        <v>1.9144791666666667</v>
+      </c>
+      <c r="C315" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="17.25">
       <c r="A316" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B316" s="2">
-        <v>0.95562499999999995</v>
-      </c>
-      <c r="C316" s="1">
+        <v>1.9561458333333333</v>
+      </c>
+      <c r="C316" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="17.25">
       <c r="A317" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B317" s="2">
-        <v>0.99729166666666669</v>
-      </c>
-      <c r="C317" s="1">
+        <v>1.9978125</v>
+      </c>
+      <c r="C317" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="17.25">
       <c r="A318" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B318" s="2">
-        <v>3.8958333333333331E-2</v>
-      </c>
-      <c r="C318" s="1">
+        <v>1.0394791666666667</v>
+      </c>
+      <c r="C318" s="3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="17.25">
       <c r="A319" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B319" s="2">
-        <v>8.0625000000000002E-2</v>
-      </c>
-      <c r="C319" s="1">
+        <v>1.0811458333333333</v>
+      </c>
+      <c r="C319" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="17.25">
       <c r="A320" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B320" s="2">
-        <v>0.12229166666666667</v>
-      </c>
-      <c r="C320" s="1">
+        <v>1.1228125</v>
+      </c>
+      <c r="C320" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="17.25">
       <c r="A321" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B321" s="2">
-        <v>0.16395833333333334</v>
-      </c>
-      <c r="C321" s="1">
+        <v>1.1644791666666667</v>
+      </c>
+      <c r="C321" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="17.25">
       <c r="A322" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B322" s="2">
-        <v>0.205625</v>
-      </c>
-      <c r="C322" s="1">
+        <v>1.2061458333333333</v>
+      </c>
+      <c r="C322" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="17.25">
       <c r="A323" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B323" s="2">
-        <v>0.24729166666666666</v>
-      </c>
-      <c r="C323" s="1">
+        <v>1.2478125</v>
+      </c>
+      <c r="C323" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="17.25">
       <c r="A324" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B324" s="2">
-        <v>0.28895833333333332</v>
-      </c>
-      <c r="C324" s="1">
+        <v>1.2894791666666667</v>
+      </c>
+      <c r="C324" s="3">
         <v>5.2</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="17.25">
       <c r="A325" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B325" s="2">
-        <v>0.330625</v>
-      </c>
-      <c r="C325" s="1">
+        <v>1.3311458333333333</v>
+      </c>
+      <c r="C325" s="3">
         <v>17.7</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="17.25">
       <c r="A326" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B326" s="2">
-        <v>0.37229166666666669</v>
-      </c>
-      <c r="C326" s="1">
+        <v>1.3728125</v>
+      </c>
+      <c r="C326" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="17.25">
       <c r="A327" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B327" s="2">
-        <v>0.41395833333333332</v>
-      </c>
-      <c r="C327" s="1">
+        <v>1.4144791666666667</v>
+      </c>
+      <c r="C327" s="4">
         <v>61</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="17.25">
       <c r="A328" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B328" s="2">
-        <v>0.455625</v>
-      </c>
-      <c r="C328" s="1">
+        <v>1.4561458333333333</v>
+      </c>
+      <c r="C328" s="3">
         <v>194.4</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="17.25">
       <c r="A329" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B329" s="2">
-        <v>0.49729166666666669</v>
-      </c>
-      <c r="C329" s="1">
+        <v>1.4978125</v>
+      </c>
+      <c r="C329" s="3">
         <v>195.5</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="17.25">
       <c r="A330" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B330" s="2">
-        <v>0.58062499999999995</v>
-      </c>
-      <c r="C330" s="1">
-        <v>160.19999999999999</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.5811458333333333</v>
+      </c>
+      <c r="C330" s="3">
+        <v>160.2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="17.25">
       <c r="A331" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B331" s="2">
-        <v>0.62229166666666669</v>
-      </c>
-      <c r="C331" s="1">
+        <v>1.6228125</v>
+      </c>
+      <c r="C331" s="3">
         <v>170.2</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="17.25">
       <c r="A332" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B332" s="2">
-        <v>0.66395833333333332</v>
-      </c>
-      <c r="C332" s="1">
+        <v>1.6644791666666667</v>
+      </c>
+      <c r="C332" s="3">
         <v>155.5</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="17.25">
       <c r="A333" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B333" s="2">
-        <v>0.70562499999999995</v>
-      </c>
-      <c r="C333" s="1">
+        <v>1.7061458333333333</v>
+      </c>
+      <c r="C333" s="3">
         <v>94.5</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="17.25">
       <c r="A334" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B334" s="2">
-        <v>0.74729166666666669</v>
-      </c>
-      <c r="C334" s="1">
+        <v>1.7478125</v>
+      </c>
+      <c r="C334" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="17.25">
       <c r="A335" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B335" s="2">
-        <v>0.78895833333333332</v>
-      </c>
-      <c r="C335" s="1">
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7894791666666667</v>
+      </c>
+      <c r="C335" s="3">
+        <v>18.4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="17.25">
       <c r="A336" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B336" s="2">
-        <v>0.83062499999999995</v>
-      </c>
-      <c r="C336" s="1">
+        <v>1.8311458333333333</v>
+      </c>
+      <c r="C336" s="3">
         <v>2.9</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="17.25">
       <c r="A337" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B337" s="2">
-        <v>0.87229166666666669</v>
-      </c>
-      <c r="C337" s="1">
+        <v>1.8728125</v>
+      </c>
+      <c r="C337" s="3">
         <v>0.6</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="17.25">
       <c r="A338" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B338" s="2">
-        <v>0.91395833333333332</v>
-      </c>
-      <c r="C338" s="1">
+        <v>1.9144791666666667</v>
+      </c>
+      <c r="C338" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="17.25">
       <c r="A339" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B339" s="2">
-        <v>0.95562499999999995</v>
-      </c>
-      <c r="C339" s="1">
+        <v>1.9561458333333333</v>
+      </c>
+      <c r="C339" s="3">
         <v>0.6</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="17.25">
       <c r="A340" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B340" s="2">
-        <v>0.99729166666666669</v>
-      </c>
-      <c r="C340" s="1">
+        <v>1.9978125</v>
+      </c>
+      <c r="C340" s="3">
         <v>0.6</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="17.25">
       <c r="A341" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B341" s="2">
-        <v>3.8958333333333331E-2</v>
-      </c>
-      <c r="C341" s="1">
+        <v>1.0394791666666667</v>
+      </c>
+      <c r="C341" s="3">
         <v>0.6</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="17.25">
       <c r="A342" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B342" s="2">
-        <v>8.0625000000000002E-2</v>
-      </c>
-      <c r="C342" s="1">
+        <v>1.0811458333333333</v>
+      </c>
+      <c r="C342" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="17.25">
       <c r="A343" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B343" s="2">
-        <v>0.12229166666666667</v>
-      </c>
-      <c r="C343" s="1">
+        <v>1.1228125</v>
+      </c>
+      <c r="C343" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="17.25">
       <c r="A344" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B344" s="2">
-        <v>0.16395833333333334</v>
-      </c>
-      <c r="C344" s="1">
+        <v>1.1644791666666667</v>
+      </c>
+      <c r="C344" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="17.25">
       <c r="A345" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B345" s="2">
-        <v>0.205625</v>
-      </c>
-      <c r="C345" s="1">
+        <v>1.2061458333333333</v>
+      </c>
+      <c r="C345" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="17.25">
       <c r="A346" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B346" s="2">
-        <v>0.24729166666666666</v>
-      </c>
-      <c r="C346" s="1">
+        <v>1.2478125</v>
+      </c>
+      <c r="C346" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="17.25">
       <c r="A347" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B347" s="2">
-        <v>0.28895833333333332</v>
-      </c>
-      <c r="C347" s="1">
+        <v>1.2894791666666667</v>
+      </c>
+      <c r="C347" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="17.25">
       <c r="A348" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B348" s="2">
-        <v>0.330625</v>
-      </c>
-      <c r="C348" s="1">
+        <v>1.3311458333333333</v>
+      </c>
+      <c r="C348" s="3">
         <v>2.4</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="17.25">
       <c r="A349" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B349" s="2">
-        <v>0.37229166666666669</v>
-      </c>
-      <c r="C349" s="1">
+        <v>1.3728125</v>
+      </c>
+      <c r="C349" s="3">
         <v>9.1</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="17.25">
       <c r="A350" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B350" s="2">
-        <v>0.41395833333333332</v>
-      </c>
-      <c r="C350" s="1">
+        <v>1.4144791666666667</v>
+      </c>
+      <c r="C350" s="3">
         <v>24.1</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="17.25">
       <c r="A351" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B351" s="2">
-        <v>0.455625</v>
-      </c>
-      <c r="C351" s="1">
+        <v>1.4561458333333333</v>
+      </c>
+      <c r="C351" s="3">
         <v>46.5</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="17.25">
       <c r="A352" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B352" s="2">
-        <v>0.49729166666666669</v>
-      </c>
-      <c r="C352" s="1">
+        <v>1.4978125</v>
+      </c>
+      <c r="C352" s="3">
         <v>160.1</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="17.25">
       <c r="A353" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B353" s="2">
-        <v>0.53895833333333332</v>
-      </c>
-      <c r="C353" s="1">
+        <v>1.5394791666666667</v>
+      </c>
+      <c r="C353" s="3">
         <v>193.3</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="17.25">
       <c r="A354" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B354" s="2">
-        <v>0.58062499999999995</v>
-      </c>
-      <c r="C354" s="1">
+        <v>1.5811458333333333</v>
+      </c>
+      <c r="C354" s="3">
         <v>158.6</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="17.25">
       <c r="A355" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B355" s="2">
-        <v>0.62229166666666669</v>
-      </c>
-      <c r="C355" s="1">
+        <v>1.6228125</v>
+      </c>
+      <c r="C355" s="3">
         <v>75.7</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="17.25">
       <c r="A356" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B356" s="2">
-        <v>0.66395833333333332</v>
-      </c>
-      <c r="C356" s="1">
+        <v>1.6644791666666667</v>
+      </c>
+      <c r="C356" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="17.25">
       <c r="A357" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B357" s="2">
-        <v>0.70562499999999995</v>
-      </c>
-      <c r="C357" s="1">
+        <v>1.7061458333333333</v>
+      </c>
+      <c r="C357" s="3">
         <v>23.1</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="17.25">
       <c r="A358" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B358" s="2">
-        <v>0.74729166666666669</v>
-      </c>
-      <c r="C358" s="1">
+        <v>1.7478125</v>
+      </c>
+      <c r="C358" s="3">
         <v>10.1</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="17.25">
       <c r="A359" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B359" s="2">
-        <v>0.78895833333333332</v>
-      </c>
-      <c r="C359" s="1">
+        <v>1.7894791666666667</v>
+      </c>
+      <c r="C359" s="3">
         <v>3.9</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="17.25">
       <c r="A360" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B360" s="2">
-        <v>0.83062499999999995</v>
-      </c>
-      <c r="C360" s="1">
+        <v>1.8311458333333333</v>
+      </c>
+      <c r="C360" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="17.25">
       <c r="A361" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B361" s="2">
-        <v>0.87229166666666669</v>
-      </c>
-      <c r="C361" s="1">
+        <v>1.8728125</v>
+      </c>
+      <c r="C361" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="17.25">
       <c r="A362" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B362" s="2">
-        <v>0.91395833333333332</v>
-      </c>
-      <c r="C362" s="1">
+        <v>1.9144791666666667</v>
+      </c>
+      <c r="C362" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="17.25">
       <c r="A363" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B363" s="2">
-        <v>0.95562499999999995</v>
-      </c>
-      <c r="C363" s="1">
+        <v>1.9561458333333333</v>
+      </c>
+      <c r="C363" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="17.25">
       <c r="A364" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B364" s="2">
-        <v>0.99729166666666669</v>
-      </c>
-      <c r="C364" s="1">
+        <v>1.9978125</v>
+      </c>
+      <c r="C364" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="17.25">
       <c r="A365" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B365" s="2">
-        <v>3.8958333333333331E-2</v>
-      </c>
-      <c r="C365" s="1">
+        <v>1.0394791666666667</v>
+      </c>
+      <c r="C365" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="17.25">
       <c r="A366" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B366" s="2">
-        <v>8.0625000000000002E-2</v>
-      </c>
-      <c r="C366" s="1">
+        <v>1.0811458333333333</v>
+      </c>
+      <c r="C366" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="17.25">
       <c r="A367" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B367" s="2">
-        <v>0.12229166666666667</v>
-      </c>
-      <c r="C367" s="1">
+        <v>1.1228125</v>
+      </c>
+      <c r="C367" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="17.25">
       <c r="A368" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B368" s="2">
-        <v>0.16395833333333334</v>
-      </c>
-      <c r="C368" s="1">
+        <v>1.1644791666666667</v>
+      </c>
+      <c r="C368" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="17.25">
       <c r="A369" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B369" s="2">
-        <v>0.205625</v>
-      </c>
-      <c r="C369" s="1">
+        <v>1.2061458333333333</v>
+      </c>
+      <c r="C369" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="17.25">
       <c r="A370" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B370" s="2">
-        <v>0.24729166666666666</v>
-      </c>
-      <c r="C370" s="1">
+        <v>1.2478125</v>
+      </c>
+      <c r="C370" s="3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="17.25">
       <c r="A371" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B371" s="2">
-        <v>0.28895833333333332</v>
-      </c>
-      <c r="C371" s="1">
+        <v>1.2894791666666667</v>
+      </c>
+      <c r="C371" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="17.25">
       <c r="A372" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B372" s="2">
-        <v>0.330625</v>
-      </c>
-      <c r="C372" s="1">
+        <v>1.3311458333333333</v>
+      </c>
+      <c r="C372" s="3">
         <v>2.9</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="17.25">
       <c r="A373" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B373" s="2">
-        <v>0.37229166666666669</v>
-      </c>
-      <c r="C373" s="1">
+        <v>1.3728125</v>
+      </c>
+      <c r="C373" s="3">
         <v>8.6</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="17.25">
       <c r="A374" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B374" s="2">
-        <v>0.41395833333333332</v>
-      </c>
-      <c r="C374" s="1">
+        <v>1.4144791666666667</v>
+      </c>
+      <c r="C374" s="3">
         <v>16.5</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="17.25">
       <c r="A375" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B375" s="2">
-        <v>0.455625</v>
-      </c>
-      <c r="C375" s="1">
+        <v>1.4561458333333333</v>
+      </c>
+      <c r="C375" s="3">
         <v>28.3</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="17.25">
       <c r="A376" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B376" s="2">
-        <v>0.49729166666666669</v>
-      </c>
-      <c r="C376" s="1">
+        <v>1.4978125</v>
+      </c>
+      <c r="C376" s="3">
         <v>52.9</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="17.25">
       <c r="A377" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B377" s="2">
-        <v>0.53895833333333332</v>
-      </c>
-      <c r="C377" s="1">
-        <v>73.400000000000006</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.5394791666666667</v>
+      </c>
+      <c r="C377" s="3">
+        <v>73.4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="17.25">
       <c r="A378" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B378" s="2">
-        <v>0.58062499999999995</v>
-      </c>
-      <c r="C378" s="1">
+        <v>1.5811458333333333</v>
+      </c>
+      <c r="C378" s="3">
         <v>73.7</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="17.25">
       <c r="A379" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B379" s="2">
-        <v>0.62229166666666669</v>
-      </c>
-      <c r="C379" s="1">
+        <v>1.6228125</v>
+      </c>
+      <c r="C379" s="4">
         <v>66</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="17.25">
       <c r="A380" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B380" s="2">
-        <v>0.66395833333333332</v>
-      </c>
-      <c r="C380" s="1">
+        <v>1.6644791666666667</v>
+      </c>
+      <c r="C380" s="3">
         <v>41.9</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="17.25">
       <c r="A381" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B381" s="2">
-        <v>0.70562499999999995</v>
-      </c>
-      <c r="C381" s="1">
+        <v>1.7061458333333333</v>
+      </c>
+      <c r="C381" s="3">
         <v>20.3</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="17.25">
       <c r="A382" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B382" s="2">
-        <v>0.74729166666666669</v>
-      </c>
-      <c r="C382" s="1">
+        <v>1.7478125</v>
+      </c>
+      <c r="C382" s="3">
         <v>16.7</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="17.25">
       <c r="A383" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B383" s="2">
-        <v>0.78895833333333332</v>
-      </c>
-      <c r="C383" s="1">
+        <v>1.7894791666666667</v>
+      </c>
+      <c r="C383" s="3">
         <v>7.7</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="17.25">
       <c r="A384" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B384" s="2">
-        <v>0.83062499999999995</v>
-      </c>
-      <c r="C384" s="1">
+        <v>1.8311458333333333</v>
+      </c>
+      <c r="C384" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="17.25">
       <c r="A385" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B385" s="2">
-        <v>0.87229166666666669</v>
-      </c>
-      <c r="C385" s="1">
+        <v>1.8728125</v>
+      </c>
+      <c r="C385" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="17.25">
       <c r="A386" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B386" s="2">
-        <v>0.91395833333333332</v>
-      </c>
-      <c r="C386" s="1">
+        <v>1.9144791666666667</v>
+      </c>
+      <c r="C386" s="3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="17.25">
       <c r="A387" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B387" s="2">
-        <v>0.95562499999999995</v>
-      </c>
-      <c r="C387" s="1">
+        <v>1.9561458333333333</v>
+      </c>
+      <c r="C387" s="3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="17.25">
       <c r="A388" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B388" s="2">
-        <v>0.99729166666666669</v>
-      </c>
-      <c r="C388" s="1">
+        <v>1.9978125</v>
+      </c>
+      <c r="C388" s="3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="17.25">
       <c r="A389" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B389" s="2">
-        <v>3.8958333333333331E-2</v>
-      </c>
-      <c r="C389" s="1">
+        <v>1.0394791666666667</v>
+      </c>
+      <c r="C389" s="3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="17.25">
       <c r="A390" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B390" s="2">
-        <v>8.0625000000000002E-2</v>
-      </c>
-      <c r="C390" s="1">
+        <v>1.0811458333333333</v>
+      </c>
+      <c r="C390" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="17.25">
       <c r="A391" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B391" s="2">
-        <v>0.12229166666666667</v>
-      </c>
-      <c r="C391" s="1">
+        <v>1.1228125</v>
+      </c>
+      <c r="C391" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="17.25">
       <c r="A392" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B392" s="2">
-        <v>0.16395833333333334</v>
-      </c>
-      <c r="C392" s="1">
+        <v>1.1644791666666667</v>
+      </c>
+      <c r="C392" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="17.25">
       <c r="A393" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B393" s="2">
-        <v>0.205625</v>
-      </c>
-      <c r="C393" s="1">
+        <v>1.2061458333333333</v>
+      </c>
+      <c r="C393" s="3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="17.25">
       <c r="A394" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B394" s="2">
-        <v>0.24729166666666666</v>
-      </c>
-      <c r="C394" s="1">
+        <v>1.2478125</v>
+      </c>
+      <c r="C394" s="3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="17.25">
       <c r="A395" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B395" s="2">
-        <v>0.28895833333333332</v>
-      </c>
-      <c r="C395" s="1">
+        <v>1.2894791666666667</v>
+      </c>
+      <c r="C395" s="3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="17.25">
       <c r="A396" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B396" s="2">
-        <v>0.330625</v>
-      </c>
-      <c r="C396" s="1">
+        <v>1.3311458333333333</v>
+      </c>
+      <c r="C396" s="3">
         <v>3.7</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="17.25">
       <c r="A397" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B397" s="2">
-        <v>0.37229166666666669</v>
-      </c>
-      <c r="C397" s="1">
+        <v>1.3728125</v>
+      </c>
+      <c r="C397" s="3">
         <v>20.8</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="17.25">
       <c r="A398" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B398" s="2">
-        <v>0.41395833333333332</v>
-      </c>
-      <c r="C398" s="1">
-        <v>40.299999999999997</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.4144791666666667</v>
+      </c>
+      <c r="C398" s="3">
+        <v>40.3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="17.25">
       <c r="A399" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B399" s="2">
-        <v>0.455625</v>
-      </c>
-      <c r="C399" s="1">
+        <v>1.4561458333333333</v>
+      </c>
+      <c r="C399" s="3">
         <v>63.2</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="17.25">
       <c r="A400" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B400" s="2">
-        <v>0.49729166666666669</v>
-      </c>
-      <c r="C400" s="1">
+        <v>1.4978125</v>
+      </c>
+      <c r="C400" s="3">
         <v>293.3</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="17.25">
       <c r="A401" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B401" s="2">
-        <v>0.53895833333333332</v>
-      </c>
-      <c r="C401" s="1">
+        <v>1.5394791666666667</v>
+      </c>
+      <c r="C401" s="3">
         <v>250.1</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="17.25">
       <c r="A402" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B402" s="2">
-        <v>0.58062499999999995</v>
-      </c>
-      <c r="C402" s="1">
+        <v>1.5811458333333333</v>
+      </c>
+      <c r="C402" s="3">
         <v>208.7</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="17.25">
       <c r="A403" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B403" s="2">
-        <v>0.62229166666666669</v>
-      </c>
-      <c r="C403" s="1">
+        <v>1.6228125</v>
+      </c>
+      <c r="C403" s="3">
         <v>191.9</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="17.25">
       <c r="A404" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B404" s="2">
-        <v>0.66395833333333332</v>
-      </c>
-      <c r="C404" s="1">
-        <v>147.69999999999999</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.6644791666666667</v>
+      </c>
+      <c r="C404" s="3">
+        <v>147.7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="17.25">
       <c r="A405" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B405" s="2">
-        <v>0.70562499999999995</v>
-      </c>
-      <c r="C405" s="1">
+        <v>1.7061458333333333</v>
+      </c>
+      <c r="C405" s="3">
         <v>171.1</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="17.25">
       <c r="A406" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B406" s="2">
-        <v>0.74729166666666669</v>
-      </c>
-      <c r="C406" s="1">
+        <v>1.7478125</v>
+      </c>
+      <c r="C406" s="3">
         <v>130.1</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="17.25">
       <c r="A407" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B407" s="2">
-        <v>0.78895833333333332</v>
-      </c>
-      <c r="C407" s="1">
+        <v>1.7894791666666667</v>
+      </c>
+      <c r="C407" s="3">
         <v>54.4</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="17.25">
       <c r="A408" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B408" s="2">
-        <v>0.83062499999999995</v>
-      </c>
-      <c r="C408" s="1">
+        <v>1.8311458333333333</v>
+      </c>
+      <c r="C408" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="17.25">
       <c r="A409" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B409" s="2">
-        <v>0.87229166666666669</v>
-      </c>
-      <c r="C409" s="1">
+        <v>1.8728125</v>
+      </c>
+      <c r="C409" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="17.25">
       <c r="A410" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B410" s="2">
-        <v>0.91395833333333332</v>
-      </c>
-      <c r="C410" s="1">
+        <v>1.9144791666666667</v>
+      </c>
+      <c r="C410" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="17.25">
       <c r="A411" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B411" s="2">
-        <v>0.95562499999999995</v>
-      </c>
-      <c r="C411" s="1">
+        <v>1.9561458333333333</v>
+      </c>
+      <c r="C411" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="17.25">
       <c r="A412" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B412" s="2">
-        <v>0.99729166666666669</v>
-      </c>
-      <c r="C412" s="1">
+        <v>1.9978125</v>
+      </c>
+      <c r="C412" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="17.25">
       <c r="A413" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B413" s="2">
-        <v>3.8958333333333331E-2</v>
-      </c>
-      <c r="C413" s="1">
+        <v>1.0394791666666667</v>
+      </c>
+      <c r="C413" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="17.25">
       <c r="A414" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B414" s="2">
-        <v>8.0625000000000002E-2</v>
-      </c>
-      <c r="C414" s="1">
+        <v>1.0811458333333333</v>
+      </c>
+      <c r="C414" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="17.25">
       <c r="A415" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B415" s="2">
-        <v>0.12229166666666667</v>
-      </c>
-      <c r="C415" s="1">
+        <v>1.1228125</v>
+      </c>
+      <c r="C415" s="3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="17.25">
       <c r="A416" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B416" s="2">
-        <v>0.16395833333333334</v>
-      </c>
-      <c r="C416" s="1">
+        <v>1.1644791666666667</v>
+      </c>
+      <c r="C416" s="3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="17.25">
       <c r="A417" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B417" s="2">
-        <v>0.205625</v>
-      </c>
-      <c r="C417" s="1">
+        <v>1.2061458333333333</v>
+      </c>
+      <c r="C417" s="3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="17.25">
       <c r="A418" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B418" s="2">
-        <v>0.24729166666666666</v>
-      </c>
-      <c r="C418" s="1">
+        <v>1.2478125</v>
+      </c>
+      <c r="C418" s="3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="17.25">
       <c r="A419" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B419" s="2">
-        <v>0.28895833333333332</v>
-      </c>
-      <c r="C419" s="1">
+        <v>1.2894791666666667</v>
+      </c>
+      <c r="C419" s="3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="17.25">
       <c r="A420" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B420" s="2">
-        <v>0.330625</v>
-      </c>
-      <c r="C420" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.3311458333333333</v>
+      </c>
+      <c r="C420" s="3">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="17.25">
       <c r="A421" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B421" s="2">
-        <v>0.37229166666666669</v>
-      </c>
-      <c r="C421" s="1">
+        <v>1.3728125</v>
+      </c>
+      <c r="C421" s="3">
         <v>3.2</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="17.25">
       <c r="A422" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B422" s="2">
-        <v>0.41395833333333332</v>
-      </c>
-      <c r="C422" s="1">
+        <v>1.4144791666666667</v>
+      </c>
+      <c r="C422" s="3">
         <v>12.9</v>
       </c>
     </row>
